--- a/output/StructureDefinition-recovery-readiness-observation.xlsx
+++ b/output/StructureDefinition-recovery-readiness-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1766,7 +1766,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/recovery-metrics-cs"/&gt;
     &lt;code value="oura"/&gt;
-    &lt;display value="Oura Readiness Score"/&gt;
+    &lt;display value="Oura Readiness"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1809,7 +1809,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/recovery-metrics-cs"/&gt;
     &lt;code value="whoop"/&gt;
-    &lt;display value="WHOOP Recovery Score"/&gt;
+    &lt;display value="WHOOP Recovery"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1932,7 +1932,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/recovery-metrics-cs"/&gt;
     &lt;code value="fitbit"/&gt;
-    &lt;display value="Fitbit Daily Readiness"/&gt;
+    &lt;display value="Fitbit Readiness"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2256,7 +2256,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/recovery-metrics-cs"/&gt;
     &lt;code value="strain-7d"/&gt;
-    &lt;display value="Cumulative Strain (7 day)"/&gt;
+    &lt;display value="Cumulative Strain 7d"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2442,7 +2442,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/recovery-metrics-cs"/&gt;
     &lt;code value="optimal-strain"/&gt;
-    &lt;display value="Optimal Strain Today"/&gt;
+    &lt;display value="Optimal Strain"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2502,7 +2502,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/recovery-metrics-cs"/&gt;
     &lt;code value="avg-7d"/&gt;
-    &lt;display value="7-Day Average Readiness"/&gt;
+    &lt;display value="7-Day Average"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2562,7 +2562,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/recovery-metrics-cs"/&gt;
     &lt;code value="avg-30d"/&gt;
-    &lt;display value="30-Day Average Readiness"/&gt;
+    &lt;display value="30-Day Average"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
